--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_12_15.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_12_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-206959.133582997</v>
+        <v>-209660.3502344538</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -662,22 +662,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="G2" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>19.98946990210323</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>168.3967303567125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,25 +738,25 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>90.53982567164233</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150558</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.1525249552777</v>
       </c>
       <c r="S3" t="n">
         <v>147.1499354121988</v>
@@ -798,13 +798,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>156.2640235680254</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -823,22 +823,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.9005633097632402</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>8.635649935375183</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>204.7191642435938</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -908,13 +908,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.41899097776993</v>
+        <v>12.41899097776992</v>
       </c>
       <c r="H5" t="n">
-        <v>26.30550072018528</v>
+        <v>38.13400604912713</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>99.30025118863681</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1149531848473</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>383.6877278154316</v>
+        <v>383.6877278154321</v>
       </c>
     </row>
     <row r="6">
@@ -975,10 +975,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>2.743965402922602</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>16.5816781547138</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -990,10 +990,10 @@
         <v>135.8005767399402</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>97.33388804333225</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>36.27346476951726</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>4.360182258713806</v>
+        <v>4.360182258713749</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1054,10 +1054,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>109.5641474825075</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1066,16 +1066,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.6974299383169</v>
       </c>
       <c r="H7" t="n">
-        <v>150.7263422083602</v>
+        <v>150.7263422083601</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1.905236112643522</v>
+        <v>1.905236112643465</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>201.4735595059546</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>11.06336712185676</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>324.7986812622732</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>7.747808529743935</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,19 +1187,19 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>106.4568076471462</v>
       </c>
       <c r="C10" t="n">
-        <v>84.3436801359536</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,19 +1345,19 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>187.9114417088642</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.4696069132659</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>289.9775033393748</v>
       </c>
       <c r="I11" t="n">
-        <v>24.14662204184555</v>
+        <v>24.1466220418456</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615211</v>
+        <v>35.14465976575063</v>
       </c>
       <c r="T11" t="n">
         <v>201.9388203544492</v>
@@ -1464,10 +1464,10 @@
         <v>134.757564313352</v>
       </c>
       <c r="H12" t="n">
-        <v>87.2605838181255</v>
+        <v>87.26058381812551</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530788</v>
+        <v>10.48847705530792</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,22 +1528,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>45.38960538442788</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.8230033569236</v>
       </c>
       <c r="H13" t="n">
-        <v>142.9518949665179</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.81330679905241</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>186.2346889920369</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>218.682419239904</v>
       </c>
       <c r="U13" t="n">
         <v>286.2007761200435</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>118.0414487264364</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187871</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569543</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,16 +1765,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>78.91051008678006</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>102.5041944721333</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710074</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1999,19 +1999,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>95.57362600055765</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>100.0416311957212</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2093,10 +2093,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187869</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703267</v>
+        <v>24.06466448613869</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2327,13 +2327,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2473,22 +2473,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>179.0209726907678</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703267</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2524,7 +2524,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417105</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2719,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,10 +2728,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428179</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>248.9956281612806</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2962,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703272</v>
       </c>
       <c r="H31" t="n">
-        <v>1.799772605715943</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3029,7 +3029,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710066</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>54.32649042089736</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3202,10 +3202,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,10 +3235,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>51.3656974031027</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695436</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3430,16 +3430,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>83.06560892428188</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3475,10 +3475,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>154.5058101250898</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>83.0656089242822</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>55.52079624060374</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3740,13 +3740,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3898,10 +3898,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>28.75188085812027</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3913,7 +3913,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>1.799772605715943</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -4031,7 +4031,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4150,7 +4150,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.0656089242822</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179546</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>670.32375641013</v>
+        <v>840.4214638411526</v>
       </c>
       <c r="C2" t="n">
-        <v>670.32375641013</v>
+        <v>840.4214638411526</v>
       </c>
       <c r="D2" t="n">
-        <v>670.32375641013</v>
+        <v>574.0438072739746</v>
       </c>
       <c r="E2" t="n">
-        <v>670.32375641013</v>
+        <v>574.0438072739746</v>
       </c>
       <c r="F2" t="n">
-        <v>403.9460998429521</v>
+        <v>307.6661507067967</v>
       </c>
       <c r="G2" t="n">
-        <v>137.5684432757741</v>
+        <v>41.28849413961871</v>
       </c>
       <c r="H2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917587</v>
+        <v>49.28269087917624</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052542</v>
+        <v>142.2640879052547</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515912</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030604</v>
+        <v>495.5981834030611</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991318</v>
+        <v>704.5463761991323</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358416</v>
+        <v>888.5149683358418</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4358,22 +4358,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>840.4214638411528</v>
+        <v>840.4214638411526</v>
       </c>
       <c r="U2" t="n">
-        <v>840.4214638411528</v>
+        <v>840.4214638411526</v>
       </c>
       <c r="V2" t="n">
-        <v>840.4214638411528</v>
+        <v>840.4214638411526</v>
       </c>
       <c r="W2" t="n">
-        <v>840.4214638411528</v>
+        <v>840.4214638411526</v>
       </c>
       <c r="X2" t="n">
-        <v>840.4214638411528</v>
+        <v>840.4214638411526</v>
       </c>
       <c r="Y2" t="n">
-        <v>670.32375641013</v>
+        <v>840.4214638411526</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4383,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>490.6074226393777</v>
+        <v>475.8035330399423</v>
       </c>
       <c r="C3" t="n">
-        <v>316.1543933582507</v>
+        <v>475.8035330399423</v>
       </c>
       <c r="D3" t="n">
-        <v>316.1543933582507</v>
+        <v>326.869123378691</v>
       </c>
       <c r="E3" t="n">
-        <v>156.9169383527952</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="F3" t="n">
-        <v>156.9169383527952</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>117.4455628004802</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699344</v>
+        <v>95.78113116957459</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302311</v>
+        <v>242.5255548298712</v>
       </c>
       <c r="M3" t="n">
-        <v>529.474696326755</v>
+        <v>433.126243926395</v>
       </c>
       <c r="N3" t="n">
-        <v>739.52866342936</v>
+        <v>643.1802110289999</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560898</v>
+        <v>813.1187583557296</v>
       </c>
       <c r="P3" t="n">
         <v>1026.524810789493</v>
@@ -4431,28 +4431,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>906.2192216098645</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="T3" t="n">
-        <v>906.2192216098645</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="U3" t="n">
-        <v>906.2192216098645</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="V3" t="n">
-        <v>906.2192216098645</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="W3" t="n">
-        <v>906.2192216098645</v>
+        <v>633.6459810884528</v>
       </c>
       <c r="X3" t="n">
-        <v>698.3677214043316</v>
+        <v>475.8035330399423</v>
       </c>
       <c r="Y3" t="n">
-        <v>490.6074226393777</v>
+        <v>475.8035330399423</v>
       </c>
     </row>
     <row r="4">
@@ -4462,46 +4462,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>491.2864063532018</v>
+        <v>190.9429532368792</v>
       </c>
       <c r="C4" t="n">
-        <v>322.3502234252949</v>
+        <v>22.00677030897225</v>
       </c>
       <c r="D4" t="n">
-        <v>322.3502234252949</v>
+        <v>22.00677030897225</v>
       </c>
       <c r="E4" t="n">
-        <v>322.3502234252949</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F4" t="n">
-        <v>322.3502234252949</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G4" t="n">
-        <v>313.6273447026937</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H4" t="n">
-        <v>159.7059716361716</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227048</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075545</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>926.0629918407077</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>719.2759572512191</v>
+        <v>848.0684854165359</v>
       </c>
       <c r="T4" t="n">
-        <v>719.2759572512191</v>
+        <v>848.0684854165359</v>
       </c>
       <c r="U4" t="n">
-        <v>719.2759572512191</v>
+        <v>848.0684854165359</v>
       </c>
       <c r="V4" t="n">
-        <v>719.2759572512191</v>
+        <v>593.383997210649</v>
       </c>
       <c r="W4" t="n">
-        <v>719.2759572512191</v>
+        <v>593.383997210649</v>
       </c>
       <c r="X4" t="n">
-        <v>491.2864063532018</v>
+        <v>593.383997210649</v>
       </c>
       <c r="Y4" t="n">
-        <v>491.2864063532018</v>
+        <v>372.5914180671189</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>76.75616715419073</v>
+        <v>189.0074363638662</v>
       </c>
       <c r="C5" t="n">
-        <v>76.75616715419073</v>
+        <v>189.0074363638662</v>
       </c>
       <c r="D5" t="n">
-        <v>76.75616715419073</v>
+        <v>189.0074363638662</v>
       </c>
       <c r="E5" t="n">
-        <v>76.75616715419073</v>
+        <v>189.0074363638662</v>
       </c>
       <c r="F5" t="n">
-        <v>69.81066640498726</v>
+        <v>182.0619356146627</v>
       </c>
       <c r="G5" t="n">
-        <v>57.26623107390652</v>
+        <v>169.517500283582</v>
       </c>
       <c r="H5" t="n">
-        <v>30.69501822523453</v>
+        <v>130.9983022541606</v>
       </c>
       <c r="I5" t="n">
-        <v>30.69501822523453</v>
+        <v>30.69501822523457</v>
       </c>
       <c r="J5" t="n">
         <v>93.76641159275187</v>
       </c>
       <c r="K5" t="n">
-        <v>239.0325989245571</v>
+        <v>239.0325989245575</v>
       </c>
       <c r="L5" t="n">
-        <v>456.1499114825646</v>
+        <v>456.1499114825652</v>
       </c>
       <c r="M5" t="n">
-        <v>729.4041931748876</v>
+        <v>729.4041931748886</v>
       </c>
       <c r="N5" t="n">
-        <v>1011.693823202381</v>
+        <v>1011.693823202383</v>
       </c>
       <c r="O5" t="n">
-        <v>1264.916654798415</v>
+        <v>1264.916654798417</v>
       </c>
       <c r="P5" t="n">
-        <v>1446.535482189412</v>
+        <v>1446.535482189414</v>
       </c>
       <c r="Q5" t="n">
-        <v>1534.750911261726</v>
+        <v>1534.750911261728</v>
       </c>
       <c r="R5" t="n">
-        <v>1534.750911261726</v>
+        <v>1534.750911261728</v>
       </c>
       <c r="S5" t="n">
-        <v>1534.750911261726</v>
+        <v>1534.750911261728</v>
       </c>
       <c r="T5" t="n">
-        <v>1534.750911261726</v>
+        <v>1534.750911261728</v>
       </c>
       <c r="U5" t="n">
-        <v>1534.750911261726</v>
+        <v>1281.099443398246</v>
       </c>
       <c r="V5" t="n">
-        <v>1203.688023918156</v>
+        <v>950.0365560546755</v>
       </c>
       <c r="W5" t="n">
-        <v>850.9193686480414</v>
+        <v>950.0365560546755</v>
       </c>
       <c r="X5" t="n">
-        <v>850.9193686480414</v>
+        <v>576.5707977935956</v>
       </c>
       <c r="Y5" t="n">
-        <v>463.3560072183125</v>
+        <v>189.0074363638662</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>625.3454228275441</v>
+        <v>625.3454228275461</v>
       </c>
       <c r="C6" t="n">
-        <v>622.5737406023698</v>
+        <v>625.3454228275461</v>
       </c>
       <c r="D6" t="n">
-        <v>473.6393309411184</v>
+        <v>608.5962529742999</v>
       </c>
       <c r="E6" t="n">
-        <v>314.4018759356629</v>
+        <v>449.3587979688443</v>
       </c>
       <c r="F6" t="n">
-        <v>167.8673179625479</v>
+        <v>302.8242399957293</v>
       </c>
       <c r="G6" t="n">
-        <v>30.69501822523453</v>
+        <v>165.6519402584159</v>
       </c>
       <c r="H6" t="n">
-        <v>30.69501822523453</v>
+        <v>67.33488162878736</v>
       </c>
       <c r="I6" t="n">
-        <v>30.69501822523453</v>
+        <v>30.69501822523457</v>
       </c>
       <c r="J6" t="n">
-        <v>174.2721860626391</v>
+        <v>70.78704471034338</v>
       </c>
       <c r="K6" t="n">
-        <v>284.4686930039496</v>
+        <v>180.983551651654</v>
       </c>
       <c r="L6" t="n">
-        <v>478.9640368353017</v>
+        <v>375.4788954830063</v>
       </c>
       <c r="M6" t="n">
-        <v>829.7791710122419</v>
+        <v>621.8026561537527</v>
       </c>
       <c r="N6" t="n">
-        <v>1097.031033584464</v>
+        <v>889.0545187259755</v>
       </c>
       <c r="O6" t="n">
-        <v>1319.294480749983</v>
+        <v>1111.317965891494</v>
       </c>
       <c r="P6" t="n">
-        <v>1478.347425948671</v>
+        <v>1270.370911090183</v>
       </c>
       <c r="Q6" t="n">
-        <v>1534.750911261726</v>
+        <v>1534.750911261728</v>
       </c>
       <c r="R6" t="n">
-        <v>1530.346686757975</v>
+        <v>1530.346686757977</v>
       </c>
       <c r="S6" t="n">
-        <v>1530.346686757975</v>
+        <v>1530.346686757977</v>
       </c>
       <c r="T6" t="n">
-        <v>1530.346686757975</v>
+        <v>1530.346686757977</v>
       </c>
       <c r="U6" t="n">
-        <v>1530.346686757975</v>
+        <v>1530.346686757977</v>
       </c>
       <c r="V6" t="n">
-        <v>1295.194578526232</v>
+        <v>1295.194578526234</v>
       </c>
       <c r="W6" t="n">
-        <v>1040.957221798031</v>
+        <v>1040.957221798033</v>
       </c>
       <c r="X6" t="n">
-        <v>833.105721592498</v>
+        <v>833.1057215925</v>
       </c>
       <c r="Y6" t="n">
-        <v>625.3454228275441</v>
+        <v>625.3454228275461</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>798.7241930811379</v>
+        <v>758.7234691457684</v>
       </c>
       <c r="C7" t="n">
-        <v>629.788010153231</v>
+        <v>758.7234691457684</v>
       </c>
       <c r="D7" t="n">
-        <v>479.6713707408953</v>
+        <v>648.0526131028315</v>
       </c>
       <c r="E7" t="n">
-        <v>331.7582771585022</v>
+        <v>500.1395195204384</v>
       </c>
       <c r="F7" t="n">
-        <v>184.8683296605918</v>
+        <v>353.249572022528</v>
       </c>
       <c r="G7" t="n">
         <v>184.8683296605918</v>
       </c>
       <c r="H7" t="n">
-        <v>32.61949914709667</v>
+        <v>32.61949914709665</v>
       </c>
       <c r="I7" t="n">
-        <v>32.61949914709667</v>
+        <v>32.61949914709665</v>
       </c>
       <c r="J7" t="n">
-        <v>30.69501822523453</v>
+        <v>30.69501822523457</v>
       </c>
       <c r="K7" t="n">
-        <v>157.4322756223268</v>
+        <v>157.432275622327</v>
       </c>
       <c r="L7" t="n">
-        <v>375.1387655830391</v>
+        <v>375.1387655830393</v>
       </c>
       <c r="M7" t="n">
-        <v>615.0688576388155</v>
+        <v>615.0688576388159</v>
       </c>
       <c r="N7" t="n">
-        <v>854.7285647974828</v>
+        <v>854.7285647974833</v>
       </c>
       <c r="O7" t="n">
-        <v>1060.076798891672</v>
+        <v>1060.076798891673</v>
       </c>
       <c r="P7" t="n">
-        <v>1212.267005934022</v>
+        <v>1212.267005934023</v>
       </c>
       <c r="Q7" t="n">
-        <v>1234.200536495184</v>
+        <v>1234.200536495185</v>
       </c>
       <c r="R7" t="n">
-        <v>1234.200536495184</v>
+        <v>1234.200536495185</v>
       </c>
       <c r="S7" t="n">
-        <v>1030.691890529574</v>
+        <v>1234.200536495185</v>
       </c>
       <c r="T7" t="n">
-        <v>1019.516772224668</v>
+        <v>1234.200536495185</v>
       </c>
       <c r="U7" t="n">
-        <v>1019.516772224668</v>
+        <v>1234.200536495185</v>
       </c>
       <c r="V7" t="n">
-        <v>1019.516772224668</v>
+        <v>979.5160482892985</v>
       </c>
       <c r="W7" t="n">
-        <v>1019.516772224668</v>
+        <v>979.5160482892985</v>
       </c>
       <c r="X7" t="n">
-        <v>1019.516772224668</v>
+        <v>979.5160482892985</v>
       </c>
       <c r="Y7" t="n">
-        <v>798.7241930811379</v>
+        <v>758.7234691457684</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>867.5113594131255</v>
+        <v>1545.062936918765</v>
       </c>
       <c r="C8" t="n">
-        <v>867.5113594131255</v>
+        <v>1176.100419978353</v>
       </c>
       <c r="D8" t="n">
-        <v>867.5113594131255</v>
+        <v>1176.100419978353</v>
       </c>
       <c r="E8" t="n">
-        <v>481.7231068148813</v>
+        <v>790.3121673801088</v>
       </c>
       <c r="F8" t="n">
-        <v>70.73720202527375</v>
+        <v>379.3262625905012</v>
       </c>
       <c r="G8" t="n">
-        <v>59.07285578996668</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H8" t="n">
-        <v>59.07285578996668</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362817</v>
@@ -4820,7 +4820,7 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
         <v>2542.25058172385</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T8" t="n">
         <v>2228.89447953245</v>
       </c>
       <c r="U8" t="n">
-        <v>1975.31341879663</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V8" t="n">
-        <v>1644.250531453059</v>
+        <v>1897.831592188879</v>
       </c>
       <c r="W8" t="n">
-        <v>1644.250531453059</v>
+        <v>1545.062936918765</v>
       </c>
       <c r="X8" t="n">
-        <v>1644.250531453059</v>
+        <v>1545.062936918765</v>
       </c>
       <c r="Y8" t="n">
-        <v>1254.111199477247</v>
+        <v>1545.062936918765</v>
       </c>
     </row>
     <row r="9">
@@ -4857,52 +4857,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182521</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812057875</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>590.2049751143501</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>884.9085321458217</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M9" t="n">
-        <v>1248.170551105042</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N9" t="n">
-        <v>1635.455679701987</v>
+        <v>1590.463386300791</v>
       </c>
       <c r="O9" t="n">
-        <v>1967.526114878149</v>
+        <v>1922.533821476953</v>
       </c>
       <c r="P9" t="n">
-        <v>2214.708848710446</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4914,16 +4914,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>391.0364678760668</v>
+        <v>788.8276219385416</v>
       </c>
       <c r="C10" t="n">
-        <v>305.8408313751036</v>
+        <v>619.8914390106347</v>
       </c>
       <c r="D10" t="n">
-        <v>305.8408313751036</v>
+        <v>619.8914390106347</v>
       </c>
       <c r="E10" t="n">
-        <v>305.8408313751036</v>
+        <v>471.9783454282416</v>
       </c>
       <c r="F10" t="n">
-        <v>305.8408313751036</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H10" t="n">
         <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1310.884232784815</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="U10" t="n">
-        <v>1310.884232784815</v>
+        <v>1124.34930177307</v>
       </c>
       <c r="V10" t="n">
-        <v>1310.884232784815</v>
+        <v>1124.34930177307</v>
       </c>
       <c r="W10" t="n">
-        <v>1021.467062747854</v>
+        <v>1124.34930177307</v>
       </c>
       <c r="X10" t="n">
-        <v>793.4775118498367</v>
+        <v>896.3597508750529</v>
       </c>
       <c r="Y10" t="n">
-        <v>572.6849327063065</v>
+        <v>896.3597508750529</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1872.090169197695</v>
+        <v>1549.87461825519</v>
       </c>
       <c r="C11" t="n">
-        <v>1503.127652257283</v>
+        <v>1549.87461825519</v>
       </c>
       <c r="D11" t="n">
-        <v>1313.318115177623</v>
+        <v>1191.60891964844</v>
       </c>
       <c r="E11" t="n">
-        <v>927.5298625793783</v>
+        <v>805.8206670501954</v>
       </c>
       <c r="F11" t="n">
-        <v>516.5439577897707</v>
+        <v>394.8347622605878</v>
       </c>
       <c r="G11" t="n">
-        <v>101.9281932309162</v>
+        <v>394.8347622605878</v>
       </c>
       <c r="H11" t="n">
-        <v>101.9281932309162</v>
+        <v>101.9281932309163</v>
       </c>
       <c r="I11" t="n">
-        <v>77.53766591592075</v>
+        <v>77.53766591592073</v>
       </c>
       <c r="J11" t="n">
         <v>304.4060796706899</v>
       </c>
       <c r="K11" t="n">
-        <v>695.1615405656967</v>
+        <v>695.1615405656976</v>
       </c>
       <c r="L11" t="n">
-        <v>1216.83000462533</v>
+        <v>1216.830004625331</v>
       </c>
       <c r="M11" t="n">
-        <v>1828.956123087831</v>
+        <v>1828.956123087832</v>
       </c>
       <c r="N11" t="n">
-        <v>2455.600890484043</v>
+        <v>2455.600890484044</v>
       </c>
       <c r="O11" t="n">
         <v>3033.988513535297</v>
       </c>
       <c r="P11" t="n">
-        <v>3493.127967479995</v>
+        <v>3493.127967479996</v>
       </c>
       <c r="Q11" t="n">
-        <v>3789.749829464062</v>
+        <v>3789.749829464061</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.883295796038</v>
+        <v>3876.883295796036</v>
       </c>
       <c r="S11" t="n">
-        <v>3776.999350345379</v>
+        <v>3841.383639466995</v>
       </c>
       <c r="T11" t="n">
-        <v>3573.020743926743</v>
+        <v>3637.40503304836</v>
       </c>
       <c r="U11" t="n">
-        <v>3319.526802048271</v>
+        <v>3383.911091169888</v>
       </c>
       <c r="V11" t="n">
-        <v>2988.463914704701</v>
+        <v>3052.848203826317</v>
       </c>
       <c r="W11" t="n">
-        <v>2635.695259434586</v>
+        <v>2700.079548556203</v>
       </c>
       <c r="X11" t="n">
-        <v>2262.229501173507</v>
+        <v>2326.613790295123</v>
       </c>
       <c r="Y11" t="n">
-        <v>1872.090169197695</v>
+        <v>1936.474458319311</v>
       </c>
     </row>
     <row r="12">
@@ -5103,40 +5103,40 @@
         <v>618.1648558508402</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9274008453847</v>
+        <v>458.9274008453848</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3928428722696</v>
+        <v>312.3928428722697</v>
       </c>
       <c r="G12" t="n">
-        <v>176.2740910406009</v>
+        <v>176.274091040601</v>
       </c>
       <c r="H12" t="n">
-        <v>88.13208718390851</v>
+        <v>88.13208718390852</v>
       </c>
       <c r="I12" t="n">
-        <v>77.53766591592075</v>
+        <v>77.53766591592073</v>
       </c>
       <c r="J12" t="n">
-        <v>193.8410919870413</v>
+        <v>77.53766591592073</v>
       </c>
       <c r="K12" t="n">
-        <v>470.7769964046656</v>
+        <v>84.53144813504377</v>
       </c>
       <c r="L12" t="n">
-        <v>889.4740370626173</v>
+        <v>503.2284887929952</v>
       </c>
       <c r="M12" t="n">
-        <v>1397.430603019146</v>
+        <v>1011.185054749523</v>
       </c>
       <c r="N12" t="n">
-        <v>1933.239912720356</v>
+        <v>1546.994364450733</v>
       </c>
       <c r="O12" t="n">
-        <v>2203.147119213801</v>
+        <v>2014.935408783256</v>
       </c>
       <c r="P12" t="n">
-        <v>2559.377995458575</v>
+        <v>2371.16628502803</v>
       </c>
       <c r="Q12" t="n">
         <v>2559.377995458575</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1003.287366026812</v>
+        <v>438.7968289340225</v>
       </c>
       <c r="C13" t="n">
-        <v>834.3511830989049</v>
+        <v>392.9487426871256</v>
       </c>
       <c r="D13" t="n">
-        <v>684.2345436865692</v>
+        <v>392.9487426871256</v>
       </c>
       <c r="E13" t="n">
-        <v>536.3214501041761</v>
+        <v>245.0356491047324</v>
       </c>
       <c r="F13" t="n">
-        <v>389.4315026062657</v>
+        <v>245.0356491047324</v>
       </c>
       <c r="G13" t="n">
-        <v>221.933519417454</v>
+        <v>77.53766591592073</v>
       </c>
       <c r="H13" t="n">
-        <v>77.53766591592075</v>
+        <v>77.53766591592073</v>
       </c>
       <c r="I13" t="n">
-        <v>77.53766591592075</v>
+        <v>77.53766591592073</v>
       </c>
       <c r="J13" t="n">
-        <v>136.8552218758649</v>
+        <v>136.8552218758648</v>
       </c>
       <c r="K13" t="n">
-        <v>364.1690246648145</v>
+        <v>364.1690246648143</v>
       </c>
       <c r="L13" t="n">
-        <v>710.578865434481</v>
+        <v>710.5788654344808</v>
       </c>
       <c r="M13" t="n">
         <v>1086.208595376939</v>
       </c>
       <c r="N13" t="n">
-        <v>1458.341306336948</v>
+        <v>1458.341306336947</v>
       </c>
       <c r="O13" t="n">
-        <v>1786.049800818665</v>
+        <v>1786.049800818664</v>
       </c>
       <c r="P13" t="n">
         <v>2042.940349010722</v>
       </c>
       <c r="Q13" t="n">
-        <v>2137.362968742808</v>
+        <v>2137.362968742807</v>
       </c>
       <c r="R13" t="n">
-        <v>2137.362968742808</v>
+        <v>2056.743466925583</v>
       </c>
       <c r="S13" t="n">
-        <v>2137.362968742808</v>
+        <v>1868.627619458879</v>
       </c>
       <c r="T13" t="n">
-        <v>2137.362968742808</v>
+        <v>1647.736286893319</v>
       </c>
       <c r="U13" t="n">
-        <v>1848.271275692259</v>
+        <v>1358.64459384277</v>
       </c>
       <c r="V13" t="n">
-        <v>1593.586787486372</v>
+        <v>1358.64459384277</v>
       </c>
       <c r="W13" t="n">
-        <v>1304.169617449412</v>
+        <v>1069.22742380581</v>
       </c>
       <c r="X13" t="n">
-        <v>1304.169617449412</v>
+        <v>841.2378729077923</v>
       </c>
       <c r="Y13" t="n">
-        <v>1184.935830857052</v>
+        <v>620.4452937642621</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,22 +5264,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5297,7 +5297,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5349,28 +5349,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.7474797708871</v>
+        <v>699.73118040114</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429802</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570817</v>
@@ -5452,34 +5452,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S16" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1284.178074642674</v>
+        <v>1330.161775272927</v>
       </c>
       <c r="X16" t="n">
-        <v>1056.188523744657</v>
+        <v>1102.17222437491</v>
       </c>
       <c r="Y16" t="n">
-        <v>835.3959446011269</v>
+        <v>881.3796452313798</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5495,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,25 +5510,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>951.7772127656161</v>
+        <v>878.3568999154057</v>
       </c>
       <c r="C19" t="n">
-        <v>782.8410298377092</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D19" t="n">
-        <v>632.7243904253735</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429804</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429804</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578603</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5689,34 +5689,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
-        <v>2345.91093085731</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="T19" t="n">
-        <v>2126.309465880251</v>
+        <v>2160.315914855603</v>
       </c>
       <c r="U19" t="n">
-        <v>2126.309465880251</v>
+        <v>1871.240688199801</v>
       </c>
       <c r="V19" t="n">
-        <v>1871.624977674364</v>
+        <v>1616.556199993914</v>
       </c>
       <c r="W19" t="n">
-        <v>1582.207807637403</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X19" t="n">
-        <v>1354.218256739386</v>
+        <v>1099.149479058936</v>
       </c>
       <c r="Y19" t="n">
-        <v>1133.425677595856</v>
+        <v>878.3568999154057</v>
       </c>
     </row>
     <row r="20">
@@ -5741,7 +5741,7 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
@@ -5750,19 +5750,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111725</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400713</v>
+        <v>808.8888553856865</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121644</v>
+        <v>639.9526724577796</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121644</v>
+        <v>489.8360330454439</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121644</v>
+        <v>341.9229394630508</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121644</v>
+        <v>341.9229394630508</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5911,10 +5911,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703111</v>
+        <v>990.5373202159262</v>
       </c>
     </row>
     <row r="23">
@@ -5975,10 +5975,10 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121644</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121644</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121644</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121644</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6148,10 +6148,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956955</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138409</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703108</v>
+        <v>878.3568999154071</v>
       </c>
     </row>
     <row r="26">
@@ -6200,46 +6200,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6251,25 +6251,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,28 +6297,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400703</v>
+        <v>801.6605733532801</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121634</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121634</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121634</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121635</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270441</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6400,34 +6400,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487566</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510507</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854705</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648818</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1432.091168225067</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138402</v>
+        <v>1204.10161732705</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.50206557031</v>
+        <v>983.3090381835199</v>
       </c>
     </row>
     <row r="29">
@@ -6461,19 +6461,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111725</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6537,22 +6537,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.853600740071</v>
+        <v>513.8536007400718</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121641</v>
+        <v>344.9174178121649</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121641</v>
+        <v>344.9174178121649</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121641</v>
+        <v>344.9174178121649</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121641</v>
+        <v>344.9174178121649</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270441</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,13 +6643,13 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
         <v>1688.385853854706</v>
@@ -6658,13 +6658,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138409</v>
+        <v>916.2946447138416</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703107</v>
+        <v>695.5020655703115</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
         <v>1948.813509611463</v>
@@ -6692,28 +6692,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6725,25 +6725,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,25 +6771,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>707.672526468518</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C34" t="n">
-        <v>538.7363435406111</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D34" t="n">
-        <v>388.6197041282754</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E34" t="n">
-        <v>240.7066105458822</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>2395.078540748843</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359457</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614394</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179092</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="35">
@@ -6929,28 +6929,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,25 +7008,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400714</v>
+        <v>866.4638174991044</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121646</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121646</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121646</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
         <v>826.1405381797745</v>
@@ -7108,13 +7108,13 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
@@ -7123,22 +7123,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>2040.996070613739</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1786.311582407852</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1496.894412370892</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1268.904861472874</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703112</v>
+        <v>1048.112282329344</v>
       </c>
     </row>
     <row r="38">
@@ -7154,10 +7154,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400718</v>
+        <v>707.6725264685181</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121649</v>
+        <v>538.7363435406112</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121649</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121649</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121649</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270448</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7345,7 +7345,7 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703115</v>
+        <v>889.3209912987578</v>
       </c>
     </row>
     <row r="41">
@@ -7391,7 +7391,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
         <v>1204.759558406469</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400711</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121642</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121642</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121642</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121642</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270441</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
@@ -7570,10 +7570,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7591,7 +7591,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S43" t="n">
         <v>2197.062545487567</v>
@@ -7606,13 +7606,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138409</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703108</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="44">
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400718</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121649</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121649</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121649</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121649</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270448</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7807,10 +7807,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166296</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189237</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327548</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290587</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925701</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703115</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761156</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>99.37288961069063</v>
+        <v>2.051220519418294</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8073,7 +8073,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>97.32166909127278</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.43939438637003</v>
+        <v>34.43939438636988</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>21.56058953000903</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8301,7 +8301,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>105.5468419254486</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>168.7434581780647</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8541,19 +8541,19 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>280.1079373569281</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>166.7715999118188</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23270,10 +23270,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.4696069132659</v>
       </c>
       <c r="H11" t="n">
-        <v>289.9775033393748</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>63.7404462304015</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>121.8572157142</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
-        <v>90.25352389927373</v>
+        <v>90.25352389927376</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.81330679905237</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>186.2346889920369</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>218.682419239904</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>100.5432046256583</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>9.848122317634988e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23653,16 +23653,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>138.4949402405082</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>184.0188038644577</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23887,19 +23887,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>71.67319509807018</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012264</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>80.98465480592338</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>57.22910392194214</v>
+        <v>141.4594738061301</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,22 +24361,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>0.8110074911695335</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194214</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24607,7 +24607,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194217</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>37.52737017531044</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>57.22910392194169</v>
       </c>
       <c r="H31" t="n">
-        <v>138.494940240508</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>125.5054897610399</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25090,10 +25090,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,10 +25123,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>166.0397529241856</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25318,16 +25318,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>62.35543909864937</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25363,10 +25363,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>131.6786642641543</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25552,19 +25552,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>125.5054897610408</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25786,10 +25786,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>119.8635921600921</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25801,7 +25801,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.494940240508</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194169</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.22910392194214</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26317,31 +26317,31 @@
         <v>307890.6636991063</v>
       </c>
       <c r="D2" t="n">
-        <v>307890.6636991062</v>
+        <v>307890.6636991063</v>
       </c>
       <c r="E2" t="n">
-        <v>274720.9666028986</v>
+        <v>274720.9666028984</v>
       </c>
       <c r="F2" t="n">
-        <v>302679.9748837522</v>
+        <v>302679.9748837521</v>
       </c>
       <c r="G2" t="n">
-        <v>302679.9748837522</v>
+        <v>302679.9748837523</v>
       </c>
       <c r="H2" t="n">
         <v>302679.9748837522</v>
       </c>
       <c r="I2" t="n">
+        <v>302679.9748837523</v>
+      </c>
+      <c r="J2" t="n">
         <v>302679.9748837522</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>302679.9748837523</v>
+      </c>
+      <c r="L2" t="n">
         <v>302679.9748837521</v>
-      </c>
-      <c r="K2" t="n">
-        <v>302679.9748837524</v>
-      </c>
-      <c r="L2" t="n">
-        <v>302679.9748837524</v>
       </c>
       <c r="M2" t="n">
         <v>302679.9748837523</v>
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911932</v>
+        <v>680087.9805911928</v>
       </c>
       <c r="C3" t="n">
-        <v>132804.2190657073</v>
+        <v>132804.2190657081</v>
       </c>
       <c r="D3" t="n">
-        <v>265413.0723929372</v>
+        <v>265413.0723929367</v>
       </c>
       <c r="E3" t="n">
-        <v>313577.1573545777</v>
+        <v>313577.1573545772</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.2687704286</v>
+        <v>189308.2687704291</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911409</v>
+        <v>68999.15441911401</v>
       </c>
       <c r="K3" t="n">
-        <v>30877.42926417434</v>
+        <v>30877.42926417455</v>
       </c>
       <c r="L3" t="n">
-        <v>65018.34502049554</v>
+        <v>65018.34502049533</v>
       </c>
       <c r="M3" t="n">
-        <v>81897.4037127308</v>
+        <v>81897.40371273085</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.57413202355</v>
+        <v>49839.57413202363</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,7 +26418,7 @@
         <v>246753.8673982314</v>
       </c>
       <c r="C4" t="n">
-        <v>210579.7944078828</v>
+        <v>210579.7944078827</v>
       </c>
       <c r="D4" t="n">
         <v>134318.0002618638</v>
@@ -26433,31 +26433,31 @@
         <v>8117.312426731974</v>
       </c>
       <c r="H4" t="n">
-        <v>8117.312426731987</v>
+        <v>8117.312426731962</v>
       </c>
       <c r="I4" t="n">
-        <v>8117.312426732009</v>
+        <v>8117.312426732007</v>
       </c>
       <c r="J4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426732015</v>
       </c>
       <c r="K4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="L4" t="n">
+        <v>8117.312426732015</v>
+      </c>
+      <c r="M4" t="n">
         <v>8117.312426731974</v>
       </c>
-      <c r="M4" t="n">
-        <v>8117.312426732017</v>
-      </c>
       <c r="N4" t="n">
+        <v>8117.312426731998</v>
+      </c>
+      <c r="O4" t="n">
+        <v>8117.312426731993</v>
+      </c>
+      <c r="P4" t="n">
         <v>8117.312426731974</v>
-      </c>
-      <c r="O4" t="n">
-        <v>8117.312426731994</v>
-      </c>
-      <c r="P4" t="n">
-        <v>8117.312426731985</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.8032042662</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>72593.65038667497</v>
+        <v>72593.65038667501</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.48506738569</v>
+        <v>85137.48506738566</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-681998.9874945846</v>
+        <v>-681998.9874945843</v>
       </c>
       <c r="C6" t="n">
-        <v>-108087.0001611587</v>
+        <v>-108087.0001611595</v>
       </c>
       <c r="D6" t="n">
-        <v>-184778.1813955395</v>
+        <v>-184778.1813955389</v>
       </c>
       <c r="E6" t="n">
-        <v>-132005.5696861502</v>
+        <v>-132226.7010001246</v>
       </c>
       <c r="F6" t="n">
-        <v>4131.86386268452</v>
+        <v>4097.125937248231</v>
       </c>
       <c r="G6" t="n">
-        <v>193440.1326331131</v>
+        <v>193405.3947076775</v>
       </c>
       <c r="H6" t="n">
-        <v>193440.1326331131</v>
+        <v>193405.3947076774</v>
       </c>
       <c r="I6" t="n">
-        <v>193440.1326331131</v>
+        <v>193405.3947076775</v>
       </c>
       <c r="J6" t="n">
-        <v>124440.9782139989</v>
+        <v>124406.2402885634</v>
       </c>
       <c r="K6" t="n">
-        <v>162562.7033689389</v>
+        <v>162527.9654435029</v>
       </c>
       <c r="L6" t="n">
-        <v>128421.7876126177</v>
+        <v>128387.049687182</v>
       </c>
       <c r="M6" t="n">
-        <v>111542.7289203824</v>
+        <v>111507.9909949467</v>
       </c>
       <c r="N6" t="n">
-        <v>143600.5585010897</v>
+        <v>143565.8205756539</v>
       </c>
       <c r="O6" t="n">
-        <v>193440.1326331133</v>
+        <v>193405.3947076775</v>
       </c>
       <c r="P6" t="n">
-        <v>193440.1326331133</v>
+        <v>193405.3947076776</v>
       </c>
     </row>
   </sheetData>
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694781</v>
       </c>
       <c r="C3" t="n">
-        <v>717.3319511695751</v>
+        <v>717.3319511695755</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
-        <v>1202.241237214951</v>
+        <v>1202.24123721495</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>383.6877278154316</v>
+        <v>383.6877278154321</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490094</v>
+        <v>969.2208239490091</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26957,19 +26957,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694781</v>
       </c>
       <c r="C3" t="n">
-        <v>103.2769374000967</v>
+        <v>103.2769374000974</v>
       </c>
       <c r="D3" t="n">
-        <v>216.732940947964</v>
+        <v>216.7329409479636</v>
       </c>
       <c r="E3" t="n">
-        <v>268.1763450974115</v>
+        <v>268.1763450974111</v>
       </c>
       <c r="F3" t="n">
-        <v>165.7342631267231</v>
+        <v>165.7342631267236</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,43 +27009,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>119.9738478139253</v>
+        <v>119.9738478139259</v>
       </c>
       <c r="D4" t="n">
-        <v>256.8971042846073</v>
+        <v>256.8971042846067</v>
       </c>
       <c r="E4" t="n">
+        <v>328.6359918489703</v>
+      </c>
+      <c r="F4" t="n">
+        <v>203.4874641506393</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>263.7138800015059</v>
+      </c>
+      <c r="K4" t="n">
+        <v>119.9738478139262</v>
+      </c>
+      <c r="L4" t="n">
+        <v>256.8971042846064</v>
+      </c>
+      <c r="M4" t="n">
         <v>328.6359918489705</v>
       </c>
-      <c r="F4" t="n">
-        <v>203.4874641506387</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>263.7138800015062</v>
-      </c>
-      <c r="K4" t="n">
-        <v>119.9738478139253</v>
-      </c>
-      <c r="L4" t="n">
-        <v>256.8971042846073</v>
-      </c>
-      <c r="M4" t="n">
-        <v>328.6359918489703</v>
-      </c>
       <c r="N4" t="n">
-        <v>203.487464150639</v>
+        <v>203.4874641506393</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>119.9738478139253</v>
+        <v>119.9738478139259</v>
       </c>
       <c r="L4" t="n">
-        <v>256.8971042846073</v>
+        <v>256.8971042846067</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489705</v>
+        <v>328.6359918489703</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506387</v>
+        <v>203.4874641506393</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27382,22 +27382,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>90.96916161917682</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>143.1621657402052</v>
+        <v>143.1621657402053</v>
       </c>
       <c r="G2" t="n">
-        <v>149.1202946442038</v>
+        <v>149.1202946442039</v>
       </c>
       <c r="H2" t="n">
-        <v>314.193632629268</v>
+        <v>294.2041627271648</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>217.8412082993411</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27458,25 +27458,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>45.48289391478112</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.92180400150561</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27518,13 +27518,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>49.5089616354521</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27543,22 +27543,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>145.5333993368059</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>158.2480171031714</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248086</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888211</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27594,16 +27594,16 @@
         <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>283.6361321697913</v>
+        <v>271.8076268408494</v>
       </c>
       <c r="I5" t="n">
-        <v>99.30025118863688</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,19 +27670,19 @@
         <v>210.4722490968155</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1149531848473</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>2.550210840622015</v>
+        <v>2.550210840621503</v>
       </c>
     </row>
     <row r="6">
@@ -27695,10 +27695,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>169.9645335853931</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>130.863387409925</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27710,10 +27710,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>97.33388804333227</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>36.2734647695173</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27774,10 +27774,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>39.05132553570488</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27786,7 +27786,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6974299383169</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27822,16 +27822,16 @@
         <v>119.1307056315184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>201.4735595059546</v>
       </c>
       <c r="T7" t="n">
-        <v>211.3552384203641</v>
+        <v>222.4186055422208</v>
       </c>
       <c r="U7" t="n">
         <v>286.2484721153922</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>86.74902151068079</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>57.96210414272656</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,19 +27907,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>73.37517253479112</v>
       </c>
       <c r="C10" t="n">
-        <v>82.90314096267423</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
@@ -28065,19 +28065,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29047,13 +29047,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29284,7 +29284,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -29749,7 +29749,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>9.426059932593489e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30460,13 +30460,13 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -30751,7 +30751,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350883</v>
+        <v>95.16927002350879</v>
       </c>
       <c r="J2" t="n">
-        <v>209.5161878388634</v>
+        <v>209.5161878388633</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
-        <v>389.5577350167918</v>
+        <v>389.5577350167917</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658378</v>
       </c>
       <c r="P2" t="n">
-        <v>354.9824263269073</v>
+        <v>354.9824263269072</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.5770185656231</v>
+        <v>266.577018565623</v>
       </c>
       <c r="R2" t="n">
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702306</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1974850295540029</v>
+        <v>0.1974850295540028</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.32079757678718</v>
+        <v>1.320797576787179</v>
       </c>
       <c r="H3" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990947</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
-        <v>213.2798437919895</v>
+        <v>213.2798437919894</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
-        <v>334.6599825043656</v>
+        <v>334.6599825043655</v>
       </c>
       <c r="N3" t="n">
-        <v>343.517436429399</v>
+        <v>343.5174364293989</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480711</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736543</v>
       </c>
       <c r="S3" t="n">
-        <v>24.53323569163905</v>
+        <v>24.53323569163904</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944813</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.0868945774202092</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,22 +31197,22 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.107312319912174</v>
+        <v>1.107312319912173</v>
       </c>
       <c r="H4" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582787</v>
       </c>
       <c r="I4" t="n">
-        <v>33.29990140244975</v>
+        <v>33.29990140244974</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779067</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
-        <v>164.6271425440336</v>
+        <v>164.6271425440335</v>
       </c>
       <c r="M4" t="n">
         <v>173.576239384051</v>
@@ -31221,25 +31221,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
-        <v>133.9243918555596</v>
+        <v>133.9243918555595</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919122</v>
+        <v>92.7223070791912</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350554</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715652</v>
+        <v>4.73124354871565</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.883746537365124</v>
+        <v>2.883746537365126</v>
       </c>
       <c r="H5" t="n">
-        <v>29.53316922579058</v>
+        <v>29.5331692257906</v>
       </c>
       <c r="I5" t="n">
-        <v>111.175638381769</v>
+        <v>111.1756383817691</v>
       </c>
       <c r="J5" t="n">
-        <v>244.7543826756934</v>
+        <v>244.7543826756935</v>
       </c>
       <c r="K5" t="n">
-        <v>366.8233736023591</v>
+        <v>366.8233736023594</v>
       </c>
       <c r="L5" t="n">
-        <v>455.0768316952472</v>
+        <v>455.0768316952474</v>
       </c>
       <c r="M5" t="n">
-        <v>506.3606591791141</v>
+        <v>506.3606591791145</v>
       </c>
       <c r="N5" t="n">
-        <v>514.5541040284029</v>
+        <v>514.5541040284032</v>
       </c>
       <c r="O5" t="n">
-        <v>485.8788493974783</v>
+        <v>485.8788493974787</v>
       </c>
       <c r="P5" t="n">
-        <v>414.6863567562768</v>
+        <v>414.6863567562771</v>
       </c>
       <c r="Q5" t="n">
-        <v>311.4121838868882</v>
+        <v>311.4121838868884</v>
       </c>
       <c r="R5" t="n">
-        <v>181.1461434277621</v>
+        <v>181.1461434277622</v>
       </c>
       <c r="S5" t="n">
-        <v>65.71337422020783</v>
+        <v>65.71337422020787</v>
       </c>
       <c r="T5" t="n">
         <v>12.62360046731584</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2306997229892098</v>
+        <v>0.23069972298921</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.542940423270407</v>
+        <v>1.542940423270408</v>
       </c>
       <c r="H6" t="n">
-        <v>14.90155619316419</v>
+        <v>14.9015561931642</v>
       </c>
       <c r="I6" t="n">
-        <v>53.12316808189778</v>
+        <v>53.12316808189782</v>
       </c>
       <c r="J6" t="n">
-        <v>145.7740335862624</v>
+        <v>145.7740335862625</v>
       </c>
       <c r="K6" t="n">
-        <v>249.1510419453797</v>
+        <v>249.1510419453799</v>
       </c>
       <c r="L6" t="n">
-        <v>335.0143230438662</v>
+        <v>335.0143230438664</v>
       </c>
       <c r="M6" t="n">
-        <v>390.9459133874184</v>
+        <v>390.9459133874186</v>
       </c>
       <c r="N6" t="n">
-        <v>401.2930884189116</v>
+        <v>401.2930884189119</v>
       </c>
       <c r="O6" t="n">
-        <v>367.1047769348673</v>
+        <v>367.1047769348676</v>
       </c>
       <c r="P6" t="n">
-        <v>294.6339480190657</v>
+        <v>294.6339480190659</v>
       </c>
       <c r="Q6" t="n">
-        <v>196.9549915739558</v>
+        <v>196.9549915739559</v>
       </c>
       <c r="R6" t="n">
-        <v>95.79765189392933</v>
+        <v>95.79765189392938</v>
       </c>
       <c r="S6" t="n">
-        <v>28.65944163399197</v>
+        <v>28.65944163399199</v>
       </c>
       <c r="T6" t="n">
-        <v>6.219132670989049</v>
+        <v>6.219132670989054</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1015092383730531</v>
+        <v>0.1015092383730532</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.293549420141856</v>
+        <v>1.293549420141857</v>
       </c>
       <c r="H7" t="n">
-        <v>11.50083029907942</v>
+        <v>11.50083029907943</v>
       </c>
       <c r="I7" t="n">
-        <v>38.90055892572057</v>
+        <v>38.9005589257206</v>
       </c>
       <c r="J7" t="n">
-        <v>91.45394400402925</v>
+        <v>91.45394400402931</v>
       </c>
       <c r="K7" t="n">
-        <v>150.2869235401175</v>
+        <v>150.2869235401176</v>
       </c>
       <c r="L7" t="n">
-        <v>192.3155201545448</v>
+        <v>192.3155201545449</v>
       </c>
       <c r="M7" t="n">
-        <v>202.7697513773275</v>
+        <v>202.7697513773277</v>
       </c>
       <c r="N7" t="n">
-        <v>197.9483399022535</v>
+        <v>197.9483399022536</v>
       </c>
       <c r="O7" t="n">
-        <v>182.8373307669599</v>
+        <v>182.8373307669601</v>
       </c>
       <c r="P7" t="n">
-        <v>156.4489225960659</v>
+        <v>156.448922596066</v>
       </c>
       <c r="Q7" t="n">
-        <v>108.3171246266058</v>
+        <v>108.3171246266059</v>
       </c>
       <c r="R7" t="n">
-        <v>58.1626857456511</v>
+        <v>58.16268574565113</v>
       </c>
       <c r="S7" t="n">
-        <v>22.54303853101762</v>
+        <v>22.54303853101763</v>
       </c>
       <c r="T7" t="n">
-        <v>5.526983886060658</v>
+        <v>5.526983886060662</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07055724109864681</v>
+        <v>0.07055724109864685</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.833130601869144</v>
+        <v>4.833130601869143</v>
       </c>
       <c r="H11" t="n">
-        <v>49.49729877639239</v>
+        <v>49.49729877639237</v>
       </c>
       <c r="I11" t="n">
-        <v>186.3292675285604</v>
+        <v>186.3292675285603</v>
       </c>
       <c r="J11" t="n">
-        <v>410.2059184203917</v>
+        <v>410.2059184203915</v>
       </c>
       <c r="K11" t="n">
-        <v>614.7923367975127</v>
+        <v>614.7923367975125</v>
       </c>
       <c r="L11" t="n">
-        <v>762.7042574544657</v>
+        <v>762.7042574544654</v>
       </c>
       <c r="M11" t="n">
-        <v>848.655443795456</v>
+        <v>848.6554437954558</v>
       </c>
       <c r="N11" t="n">
-        <v>862.3875761180168</v>
+        <v>862.3875761180165</v>
       </c>
       <c r="O11" t="n">
-        <v>814.3281336956804</v>
+        <v>814.3281336956802</v>
       </c>
       <c r="P11" t="n">
-        <v>695.0102219620359</v>
+        <v>695.0102219620356</v>
       </c>
       <c r="Q11" t="n">
-        <v>521.9237322825969</v>
+        <v>521.9237322825968</v>
       </c>
       <c r="R11" t="n">
-        <v>303.5991401696629</v>
+        <v>303.5991401696628</v>
       </c>
       <c r="S11" t="n">
         <v>110.1349635900932</v>
       </c>
       <c r="T11" t="n">
-        <v>21.15702920968219</v>
+        <v>21.15702920968218</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3866504481495315</v>
+        <v>0.3866504481495314</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.585952849858573</v>
+        <v>2.585952849858572</v>
       </c>
       <c r="H12" t="n">
-        <v>24.97486041837096</v>
+        <v>24.97486041837095</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469212</v>
+        <v>89.03390294469207</v>
       </c>
       <c r="J12" t="n">
-        <v>244.3158348193137</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>417.5746757598381</v>
+        <v>144.9058654583217</v>
       </c>
       <c r="L12" t="n">
-        <v>561.4806834747749</v>
+        <v>561.4806834747747</v>
       </c>
       <c r="M12" t="n">
-        <v>655.2214742821481</v>
+        <v>655.2214742821477</v>
       </c>
       <c r="N12" t="n">
-        <v>672.5632370340505</v>
+        <v>672.5632370340503</v>
       </c>
       <c r="O12" t="n">
-        <v>415.229786357015</v>
+        <v>615.2639659924472</v>
       </c>
       <c r="P12" t="n">
-        <v>493.8035753383446</v>
+        <v>493.8035753383444</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>330.0946129047539</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>48.03293999627653</v>
+        <v>48.03293999627652</v>
       </c>
       <c r="T12" t="n">
         <v>10.42320468868433</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1701284769643799</v>
+        <v>0.1701284769643798</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,46 +31908,46 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.167976001535157</v>
+        <v>2.167976001535156</v>
       </c>
       <c r="H13" t="n">
-        <v>19.27527754092168</v>
+        <v>19.27527754092167</v>
       </c>
       <c r="I13" t="n">
-        <v>65.19695102798455</v>
+        <v>65.19695102798453</v>
       </c>
       <c r="J13" t="n">
-        <v>153.2759033085356</v>
+        <v>153.2759033085355</v>
       </c>
       <c r="K13" t="n">
-        <v>251.8793936329027</v>
+        <v>251.8793936329026</v>
       </c>
       <c r="L13" t="n">
-        <v>322.3189048100542</v>
+        <v>322.3189048100541</v>
       </c>
       <c r="M13" t="n">
-        <v>339.8400926770064</v>
+        <v>339.8400926770062</v>
       </c>
       <c r="N13" t="n">
-        <v>331.7594548531029</v>
+        <v>331.7594548531027</v>
       </c>
       <c r="O13" t="n">
-        <v>306.4335533806239</v>
+        <v>306.4335533806238</v>
       </c>
       <c r="P13" t="n">
-        <v>262.2068429493065</v>
+        <v>262.2068429493063</v>
       </c>
       <c r="Q13" t="n">
         <v>181.5384268194575</v>
       </c>
       <c r="R13" t="n">
-        <v>97.48008457811711</v>
+        <v>97.48008457811707</v>
       </c>
       <c r="S13" t="n">
-        <v>37.7819090449354</v>
+        <v>37.78190904493538</v>
       </c>
       <c r="T13" t="n">
-        <v>9.263170188377485</v>
+        <v>9.263170188377481</v>
       </c>
       <c r="U13" t="n">
         <v>0.1182532364473723</v>
@@ -32075,13 +32075,13 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>399.9031616963283</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32090,10 +32090,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32309,34 +32309,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -33023,13 +33023,13 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,10 +33038,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33275,7 +33275,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33512,7 +33512,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33749,7 +33749,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217703</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664461</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186564</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441511</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117352</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>97.3216690912724</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.4384048176305</v>
+        <v>75.43840481763041</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
-        <v>192.5259485823473</v>
+        <v>192.5259485823472</v>
       </c>
       <c r="N3" t="n">
-        <v>212.1757243460657</v>
+        <v>212.1757243460656</v>
       </c>
       <c r="O3" t="n">
-        <v>171.6550983098281</v>
+        <v>171.655098309828</v>
       </c>
       <c r="P3" t="n">
-        <v>118.240000033741</v>
+        <v>215.5616691250137</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649641</v>
+        <v>28.61687799649636</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34872,10 +34872,10 @@
         <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>131.2029511204531</v>
+        <v>131.202951120453</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496811</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.70847814900711</v>
+        <v>63.70847814900725</v>
       </c>
       <c r="K5" t="n">
-        <v>146.7335225573786</v>
+        <v>146.7335225573788</v>
       </c>
       <c r="L5" t="n">
-        <v>219.3104167252599</v>
+        <v>219.3104167252602</v>
       </c>
       <c r="M5" t="n">
-        <v>276.0144259518414</v>
+        <v>276.0144259518418</v>
       </c>
       <c r="N5" t="n">
-        <v>285.141040431812</v>
+        <v>285.1410404318123</v>
       </c>
       <c r="O5" t="n">
-        <v>255.7806379757916</v>
+        <v>255.780637975792</v>
       </c>
       <c r="P5" t="n">
-        <v>183.4533610010073</v>
+        <v>183.4533610010075</v>
       </c>
       <c r="Q5" t="n">
-        <v>89.10649401243873</v>
+        <v>89.10649401243896</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>145.0274422600046</v>
+        <v>40.49699644960486</v>
       </c>
       <c r="K6" t="n">
-        <v>111.3096029710207</v>
+        <v>111.3096029710209</v>
       </c>
       <c r="L6" t="n">
-        <v>196.459943263992</v>
+        <v>196.4599432639922</v>
       </c>
       <c r="M6" t="n">
-        <v>354.3587213908487</v>
+        <v>248.8118794654003</v>
       </c>
       <c r="N6" t="n">
-        <v>269.9513763355783</v>
+        <v>269.9513763355786</v>
       </c>
       <c r="O6" t="n">
-        <v>224.5085324904229</v>
+        <v>224.5085324904231</v>
       </c>
       <c r="P6" t="n">
-        <v>160.6595406047355</v>
+        <v>160.6595406047356</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.97321748793428</v>
+        <v>267.0505052237835</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>128.0174317142346</v>
+        <v>128.0174317142347</v>
       </c>
       <c r="L7" t="n">
-        <v>219.9055454148609</v>
+        <v>219.905545414861</v>
       </c>
       <c r="M7" t="n">
-        <v>242.3536283391681</v>
+        <v>242.3536283391683</v>
       </c>
       <c r="N7" t="n">
-        <v>242.0805122814821</v>
+        <v>242.0805122814822</v>
       </c>
       <c r="O7" t="n">
-        <v>207.4224586809996</v>
+        <v>207.4224586809997</v>
       </c>
       <c r="P7" t="n">
-        <v>153.7274818609594</v>
+        <v>153.7274818609595</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.15508137491145</v>
+        <v>22.15508137491152</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>355.3309544215495</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378501</v>
@@ -35261,19 +35261,19 @@
         <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="O9" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>529.7874664804604</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.1600138937054</v>
+        <v>229.1600138937052</v>
       </c>
       <c r="K11" t="n">
-        <v>394.7024857525321</v>
+        <v>394.7024857525319</v>
       </c>
       <c r="L11" t="n">
-        <v>526.9378424844786</v>
+        <v>526.9378424844781</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681833</v>
+        <v>618.3092105681831</v>
       </c>
       <c r="N11" t="n">
-        <v>632.9745125214258</v>
+        <v>632.9745125214256</v>
       </c>
       <c r="O11" t="n">
-        <v>584.2299222739937</v>
+        <v>584.2299222739935</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067663</v>
+        <v>463.7772262067661</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.6180424081474</v>
+        <v>299.6180424081473</v>
       </c>
       <c r="R11" t="n">
-        <v>88.01360235553079</v>
+        <v>88.01360235553068</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>117.478208152647</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>279.7332367854791</v>
+        <v>7.064426483962674</v>
       </c>
       <c r="L12" t="n">
-        <v>422.9263036949007</v>
+        <v>422.9263036949005</v>
       </c>
       <c r="M12" t="n">
-        <v>513.0874403601297</v>
+        <v>513.0874403601294</v>
       </c>
       <c r="N12" t="n">
-        <v>541.2215249507173</v>
+        <v>541.221524950717</v>
       </c>
       <c r="O12" t="n">
-        <v>272.6335419125705</v>
+        <v>472.6677215480028</v>
       </c>
       <c r="P12" t="n">
-        <v>359.8291679240143</v>
+        <v>359.8291679240141</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>190.1128388187324</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.91672319186279</v>
+        <v>59.91672319186273</v>
       </c>
       <c r="K13" t="n">
-        <v>229.6099018070198</v>
+        <v>229.6099018070197</v>
       </c>
       <c r="L13" t="n">
-        <v>349.9089300703703</v>
+        <v>349.9089300703702</v>
       </c>
       <c r="M13" t="n">
-        <v>379.423969638847</v>
+        <v>379.4239696388468</v>
       </c>
       <c r="N13" t="n">
-        <v>375.8916272323314</v>
+        <v>375.8916272323313</v>
       </c>
       <c r="O13" t="n">
-        <v>331.0186812946636</v>
+        <v>331.0186812946635</v>
       </c>
       <c r="P13" t="n">
-        <v>259.4854022142</v>
+        <v>259.4854022141998</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.37638356776314</v>
+        <v>95.37638356776309</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35738,10 +35738,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
         <v>479.454324036777</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36364,7 +36364,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,10 +36686,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36923,7 +36923,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37160,7 +37160,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37397,7 +37397,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
